--- a/checklists/Проверка безопасности.xlsx
+++ b/checklists/Проверка безопасности.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\003QA\Чеклисты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frAk1R\git\QA\checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498AC95-A74C-4DAF-B469-65C6BBD305AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24BAC74-B960-4919-82D8-C1B30D971CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27735" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,30 +152,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -202,25 +178,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,7 +532,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +543,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -584,29 +554,35 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -614,8 +590,8 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -623,8 +599,8 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -632,8 +608,8 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5</v>
+      <c r="A9" s="2">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -641,8 +617,8 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -650,8 +626,8 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -659,8 +635,8 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>8</v>
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -668,8 +644,8 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>9</v>
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -677,8 +653,8 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>10</v>
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -686,8 +662,8 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>11</v>
+      <c r="A15" s="2">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -695,8 +671,8 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12</v>
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -704,17 +680,17 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>14</v>
+      <c r="A18" s="2">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -722,8 +698,8 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>15</v>
+      <c r="A19" s="2">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -731,8 +707,8 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
+      <c r="A20" s="2">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -740,8 +716,8 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
+      <c r="A21" s="2">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -749,8 +725,8 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
+      <c r="A22" s="2">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
@@ -761,9 +737,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:B22">
     <sortCondition ref="B6:B22"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
